--- a/RPL_V2/xlsx/stadium_fnl.xlsx
+++ b/RPL_V2/xlsx/stadium_fnl.xlsx
@@ -893,6 +893,9 @@
       </c>
     </row>
     <row r="2" spans="1:17">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -903,7 +906,7 @@
         <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
         <v>58</v>
@@ -940,6 +943,9 @@
       </c>
     </row>
     <row r="3" spans="1:17">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -950,7 +956,7 @@
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
         <v>59</v>
@@ -987,6 +993,9 @@
       </c>
     </row>
     <row r="4" spans="1:17">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -997,7 +1006,7 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
         <v>60</v>
@@ -1034,6 +1043,9 @@
       </c>
     </row>
     <row r="5" spans="1:17">
+      <c r="A5">
+        <v>1</v>
+      </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -1044,7 +1056,7 @@
         <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
         <v>61</v>
@@ -1081,6 +1093,9 @@
       </c>
     </row>
     <row r="6" spans="1:17">
+      <c r="A6">
+        <v>1</v>
+      </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -1091,7 +1106,7 @@
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
         <v>62</v>
@@ -1128,6 +1143,9 @@
       </c>
     </row>
     <row r="7" spans="1:17">
+      <c r="A7">
+        <v>1</v>
+      </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -1138,7 +1156,7 @@
         <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
         <v>63</v>
@@ -1175,6 +1193,9 @@
       </c>
     </row>
     <row r="8" spans="1:17">
+      <c r="A8">
+        <v>1</v>
+      </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -1185,7 +1206,7 @@
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
         <v>64</v>
@@ -1222,6 +1243,9 @@
       </c>
     </row>
     <row r="9" spans="1:17">
+      <c r="A9">
+        <v>1</v>
+      </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -1232,7 +1256,7 @@
         <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
         <v>65</v>
@@ -1269,6 +1293,9 @@
       </c>
     </row>
     <row r="10" spans="1:17">
+      <c r="A10">
+        <v>1</v>
+      </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -1279,7 +1306,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
         <v>60</v>
@@ -1316,6 +1343,9 @@
       </c>
     </row>
     <row r="11" spans="1:17">
+      <c r="A11">
+        <v>1</v>
+      </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -1326,7 +1356,7 @@
         <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
         <v>64</v>
@@ -1363,6 +1393,9 @@
       </c>
     </row>
     <row r="12" spans="1:17">
+      <c r="A12">
+        <v>3</v>
+      </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -1373,7 +1406,7 @@
         <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
         <v>66</v>
@@ -1410,6 +1443,9 @@
       </c>
     </row>
     <row r="13" spans="1:17">
+      <c r="A13">
+        <v>3</v>
+      </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -1420,7 +1456,7 @@
         <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
         <v>67</v>
@@ -1457,6 +1493,9 @@
       </c>
     </row>
     <row r="14" spans="1:17">
+      <c r="A14">
+        <v>3</v>
+      </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -1467,7 +1506,7 @@
         <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
         <v>68</v>
@@ -1504,6 +1543,9 @@
       </c>
     </row>
     <row r="15" spans="1:17">
+      <c r="A15">
+        <v>3</v>
+      </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
@@ -1514,7 +1556,7 @@
         <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
         <v>69</v>
@@ -1551,6 +1593,9 @@
       </c>
     </row>
     <row r="16" spans="1:17">
+      <c r="A16">
+        <v>3</v>
+      </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
@@ -1561,7 +1606,7 @@
         <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
         <v>70</v>
@@ -1598,6 +1643,9 @@
       </c>
     </row>
     <row r="17" spans="1:17">
+      <c r="A17">
+        <v>3</v>
+      </c>
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -1608,7 +1656,7 @@
         <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
         <v>71</v>
@@ -1645,6 +1693,9 @@
       </c>
     </row>
     <row r="18" spans="1:17">
+      <c r="A18">
+        <v>3</v>
+      </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -1655,7 +1706,7 @@
         <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s">
         <v>60</v>
